--- a/Code/Results/Cases/Case_0_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_255/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1745790315557798</v>
+        <v>0.200282878265071</v>
       </c>
       <c r="D2">
-        <v>0.1483077327113591</v>
+        <v>0.1543759122274935</v>
       </c>
       <c r="E2">
-        <v>0.09486672183111722</v>
+        <v>0.1546295407942502</v>
       </c>
       <c r="F2">
-        <v>0.6970558134499214</v>
+        <v>1.805833490361131</v>
       </c>
       <c r="G2">
-        <v>0.0008147630326114486</v>
+        <v>0.002503252704902824</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4810332315074746</v>
+        <v>1.268184973858858</v>
       </c>
       <c r="J2">
-        <v>0.08813816674376795</v>
+        <v>0.1948882914732621</v>
       </c>
       <c r="K2">
-        <v>5.094290721099242</v>
+        <v>2.238571896726114</v>
       </c>
       <c r="L2">
-        <v>0.106383607004588</v>
+        <v>0.2152460557927753</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.595371685845677</v>
+        <v>4.648411802060537</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1563592120328678</v>
+        <v>0.1957145503483275</v>
       </c>
       <c r="D3">
-        <v>0.1318644547020824</v>
+        <v>0.1498356420788696</v>
       </c>
       <c r="E3">
-        <v>0.08729588366746555</v>
+        <v>0.1532361930638615</v>
       </c>
       <c r="F3">
-        <v>0.691185417756472</v>
+        <v>1.823267539609333</v>
       </c>
       <c r="G3">
-        <v>0.0008195043654533495</v>
+        <v>0.002506347948600474</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4788401241025255</v>
+        <v>1.281257982336221</v>
       </c>
       <c r="J3">
-        <v>0.08426815482722461</v>
+        <v>0.1951329391446563</v>
       </c>
       <c r="K3">
-        <v>4.432940328988025</v>
+        <v>2.028888705679663</v>
       </c>
       <c r="L3">
-        <v>0.100245639558068</v>
+        <v>0.2147287509102966</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.623743316532966</v>
+        <v>4.709726907168474</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1452640143074433</v>
+        <v>0.1929644642371642</v>
       </c>
       <c r="D4">
-        <v>0.1218175292552672</v>
+        <v>0.1470759178108949</v>
       </c>
       <c r="E4">
-        <v>0.0827247554719257</v>
+        <v>0.1524313634453591</v>
       </c>
       <c r="F4">
-        <v>0.6896102453037827</v>
+        <v>1.835099578663296</v>
       </c>
       <c r="G4">
-        <v>0.0008225059612658454</v>
+        <v>0.002508348510002439</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4789612506489043</v>
+        <v>1.290093201530034</v>
       </c>
       <c r="J4">
-        <v>0.08201744558825652</v>
+        <v>0.1953636461386346</v>
       </c>
       <c r="K4">
-        <v>4.027320086388443</v>
+        <v>1.899891944254477</v>
       </c>
       <c r="L4">
-        <v>0.09658971997360055</v>
+        <v>0.2144868920320064</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.64701926205305</v>
+        <v>4.750521326293793</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1407635772695812</v>
+        <v>0.1918576867104207</v>
       </c>
       <c r="D5">
-        <v>0.1177341447648246</v>
+        <v>0.1459584526993183</v>
       </c>
       <c r="E5">
-        <v>0.08088022121334859</v>
+        <v>0.1521161834048712</v>
       </c>
       <c r="F5">
-        <v>0.6894543395920323</v>
+        <v>1.84020454445249</v>
       </c>
       <c r="G5">
-        <v>0.0008237523622549323</v>
+        <v>0.002509188993293085</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4793620729222532</v>
+        <v>1.293896725304677</v>
       </c>
       <c r="J5">
-        <v>0.08113031475851429</v>
+        <v>0.1954779272508596</v>
       </c>
       <c r="K5">
-        <v>3.862083015584972</v>
+        <v>1.847265272329423</v>
       </c>
       <c r="L5">
-        <v>0.09512683629971264</v>
+        <v>0.214407430195493</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.657907308646884</v>
+        <v>4.767935719273993</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.140017487975669</v>
+        <v>0.1916747500265501</v>
       </c>
       <c r="D6">
-        <v>0.1170567111696812</v>
+        <v>0.145773332938262</v>
       </c>
       <c r="E6">
-        <v>0.0805750047885283</v>
+        <v>0.1520646221709541</v>
       </c>
       <c r="F6">
-        <v>0.689457117918856</v>
+        <v>1.841069325851194</v>
       </c>
       <c r="G6">
-        <v>0.0008239607430973456</v>
+        <v>0.002509330081509956</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4794493592370905</v>
+        <v>1.294540559497115</v>
       </c>
       <c r="J6">
-        <v>0.08098477997259934</v>
+        <v>0.1954981283264772</v>
       </c>
       <c r="K6">
-        <v>3.834647348843419</v>
+        <v>1.83852316800801</v>
       </c>
       <c r="L6">
-        <v>0.09488551186638716</v>
+        <v>0.2143953903971507</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.659798028211668</v>
+        <v>4.770875073130441</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1452032377721082</v>
+        <v>0.192949481408462</v>
       </c>
       <c r="D7">
-        <v>0.121762417509288</v>
+        <v>0.1470608182238777</v>
       </c>
       <c r="E7">
-        <v>0.0826998071602425</v>
+        <v>0.1524270609485257</v>
       </c>
       <c r="F7">
-        <v>0.6896062061239405</v>
+        <v>1.835167279154241</v>
       </c>
       <c r="G7">
-        <v>0.0008225226759235871</v>
+        <v>0.002508359742594029</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4789652558149768</v>
+        <v>1.290143675056278</v>
       </c>
       <c r="J7">
-        <v>0.08200536168254757</v>
+        <v>0.1953651052825585</v>
       </c>
       <c r="K7">
-        <v>4.025091485206246</v>
+        <v>1.899182438529976</v>
       </c>
       <c r="L7">
-        <v>0.09656988379856557</v>
+        <v>0.2144857429961675</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.647160510971204</v>
+        <v>4.750752984090283</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.168276434051549</v>
+        <v>0.198696387372209</v>
       </c>
       <c r="D8">
-        <v>0.1426268651893707</v>
+        <v>0.152804669149873</v>
       </c>
       <c r="E8">
-        <v>0.09223947102815089</v>
+        <v>0.1541386213358429</v>
       </c>
       <c r="F8">
-        <v>0.6945955041285927</v>
+        <v>1.811610627873506</v>
       </c>
       <c r="G8">
-        <v>0.0008163793881924109</v>
+        <v>0.002504299220740995</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4799615392599534</v>
+        <v>1.272524678348361</v>
       </c>
       <c r="J8">
-        <v>0.08677680704366963</v>
+        <v>0.1949559548169475</v>
       </c>
       <c r="K8">
-        <v>4.866127512657044</v>
+        <v>2.16632715014714</v>
       </c>
       <c r="L8">
-        <v>0.1042429288286897</v>
+        <v>0.2150519897113981</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.603895882326441</v>
+        <v>4.668899600170747</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2143578323831292</v>
+        <v>0.2103977214372748</v>
       </c>
       <c r="D9">
-        <v>0.1840121746685952</v>
+        <v>0.1642869720070195</v>
       </c>
       <c r="E9">
-        <v>0.1116207887178398</v>
+        <v>0.157895403163014</v>
       </c>
       <c r="F9">
-        <v>0.7216442251930317</v>
+        <v>1.774371262648032</v>
       </c>
       <c r="G9">
-        <v>0.0008050258383370812</v>
+        <v>0.002497127115342936</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4944038209957</v>
+        <v>1.244395259006389</v>
       </c>
       <c r="J9">
-        <v>0.09720212830102781</v>
+        <v>0.1947913228107225</v>
       </c>
       <c r="K9">
-        <v>6.521853032044646</v>
+        <v>2.688081965167271</v>
       </c>
       <c r="L9">
-        <v>0.1202547516644543</v>
+        <v>0.2167618594152856</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.568842807333311</v>
+        <v>4.533394066844863</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2488848082902138</v>
+        <v>0.2192537691241796</v>
       </c>
       <c r="D10">
-        <v>0.2148260270397202</v>
+        <v>0.172852298684532</v>
       </c>
       <c r="E10">
-        <v>0.126361930989308</v>
+        <v>0.160897644328557</v>
       </c>
       <c r="F10">
-        <v>0.7537699807654263</v>
+        <v>1.752484223464187</v>
       </c>
       <c r="G10">
-        <v>0.000797071550829508</v>
+        <v>0.002492334880521987</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5138799398088523</v>
+        <v>1.227654010190534</v>
       </c>
       <c r="J10">
-        <v>0.1056221016952463</v>
+        <v>0.1950580932909816</v>
       </c>
       <c r="K10">
-        <v>7.746706124465504</v>
+        <v>3.069993385234568</v>
       </c>
       <c r="L10">
-        <v>0.1327121221608039</v>
+        <v>0.218381599617075</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.578378948296574</v>
+        <v>4.449139988894615</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.264777090860008</v>
+        <v>0.2233380842245793</v>
       </c>
       <c r="D11">
-        <v>0.2289623359610005</v>
+        <v>0.1767761836544963</v>
       </c>
       <c r="E11">
-        <v>0.1331989752195177</v>
+        <v>0.1623156336159433</v>
       </c>
       <c r="F11">
-        <v>0.7714613249385565</v>
+        <v>1.743718542626965</v>
       </c>
       <c r="G11">
-        <v>0.0007935285216575201</v>
+        <v>0.002490257337855419</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5249665328088042</v>
+        <v>1.220892711862071</v>
       </c>
       <c r="J11">
-        <v>0.1096440503672937</v>
+        <v>0.1952634449125341</v>
       </c>
       <c r="K11">
-        <v>8.306842461671238</v>
+        <v>3.243401085020764</v>
       </c>
       <c r="L11">
-        <v>0.1385553248538969</v>
+        <v>0.2191970073090701</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.591569205752251</v>
+        <v>4.414145305761707</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2708253111306362</v>
+        <v>0.2248926242513107</v>
       </c>
       <c r="D12">
-        <v>0.234335134701098</v>
+        <v>0.1782659237127149</v>
       </c>
       <c r="E12">
-        <v>0.1358088226332477</v>
+        <v>0.16286006278089</v>
       </c>
       <c r="F12">
-        <v>0.7786408280124135</v>
+        <v>1.740570690760578</v>
       </c>
       <c r="G12">
-        <v>0.0007921969606569657</v>
+        <v>0.00248948528382106</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5295123271556363</v>
+        <v>1.218455438563886</v>
       </c>
       <c r="J12">
-        <v>0.1111969983275927</v>
+        <v>0.1953532642062896</v>
       </c>
       <c r="K12">
-        <v>8.519472955535093</v>
+        <v>3.309016357095174</v>
       </c>
       <c r="L12">
-        <v>0.1407956294268402</v>
+        <v>0.2195170420698318</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.597945239310889</v>
+        <v>4.401374041540436</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2695213195177217</v>
+        <v>0.2245574766078846</v>
       </c>
       <c r="D13">
-        <v>0.2331770873348944</v>
+        <v>0.1779449119038929</v>
       </c>
       <c r="E13">
-        <v>0.1352457873376807</v>
+        <v>0.1627424788459919</v>
       </c>
       <c r="F13">
-        <v>0.7770726049503622</v>
+        <v>1.741241004085765</v>
       </c>
       <c r="G13">
-        <v>0.0007924832989422561</v>
+        <v>0.002489650908331391</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5285173930250409</v>
+        <v>1.218974871222613</v>
       </c>
       <c r="J13">
-        <v>0.1108611726450022</v>
+        <v>0.1953333841122245</v>
       </c>
       <c r="K13">
-        <v>8.473654476396746</v>
+        <v>3.294887235656802</v>
       </c>
       <c r="L13">
-        <v>0.1403118737670326</v>
+        <v>0.2194476168422028</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.596508800327911</v>
+        <v>4.404103174100328</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2652740564370646</v>
+        <v>0.223465819464991</v>
       </c>
       <c r="D14">
-        <v>0.2294039492356319</v>
+        <v>0.1768986688811793</v>
       </c>
       <c r="E14">
-        <v>0.1334132602668205</v>
+        <v>0.1623602747399069</v>
       </c>
       <c r="F14">
-        <v>0.7720421368583459</v>
+        <v>1.743456127820195</v>
       </c>
       <c r="G14">
-        <v>0.0007934187751982815</v>
+        <v>0.002490193527177435</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5253333883426734</v>
+        <v>1.220689727855188</v>
       </c>
       <c r="J14">
-        <v>0.1097711983972118</v>
+        <v>0.1952705928798366</v>
       </c>
       <c r="K14">
-        <v>8.324324720271875</v>
+        <v>3.248800324825879</v>
       </c>
       <c r="L14">
-        <v>0.1387390690886008</v>
+        <v>0.2192231113833643</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.592065433747337</v>
+        <v>4.413084970149413</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2626765196281013</v>
+        <v>0.2227981734797027</v>
       </c>
       <c r="D15">
-        <v>0.2270954372575744</v>
+        <v>0.176258313222263</v>
       </c>
       <c r="E15">
-        <v>0.1322935544304897</v>
+        <v>0.1621271347821143</v>
       </c>
       <c r="F15">
-        <v>0.7690245330332743</v>
+        <v>1.744835300477391</v>
       </c>
       <c r="G15">
-        <v>0.0007939930747662232</v>
+        <v>0.002490527804601667</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5234292025966738</v>
+        <v>1.221756162847207</v>
       </c>
       <c r="J15">
-        <v>0.1091075280214966</v>
+        <v>0.1952337009921337</v>
       </c>
       <c r="K15">
-        <v>8.232926507799789</v>
+        <v>3.220564083080774</v>
       </c>
       <c r="L15">
-        <v>0.1377793467873758</v>
+        <v>0.2190870601293327</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.589526974918641</v>
+        <v>4.418649185395509</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2478502365433144</v>
+        <v>0.2189879604858049</v>
       </c>
       <c r="D16">
-        <v>0.2139047950515334</v>
+        <v>0.1725964077936339</v>
       </c>
       <c r="E16">
-        <v>0.1259179166766131</v>
+        <v>0.1608060228870727</v>
       </c>
       <c r="F16">
-        <v>0.7526788834397422</v>
+        <v>1.753081068030355</v>
       </c>
       <c r="G16">
-        <v>0.0007973045518594186</v>
+        <v>0.002492472708909234</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5132025007061145</v>
+        <v>1.228113088474998</v>
       </c>
       <c r="J16">
-        <v>0.1053633122196018</v>
+        <v>0.1950463614607614</v>
       </c>
       <c r="K16">
-        <v>7.710167128651051</v>
+        <v>3.058653919189908</v>
       </c>
       <c r="L16">
-        <v>0.1323339915258259</v>
+        <v>0.2183298884265028</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.577704117775511</v>
+        <v>4.451494142612859</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2388047373617468</v>
+        <v>0.2166646980545721</v>
       </c>
       <c r="D17">
-        <v>0.2058449942824723</v>
+        <v>0.1703569123192352</v>
       </c>
       <c r="E17">
-        <v>0.1220416086776694</v>
+        <v>0.1600089138361973</v>
       </c>
       <c r="F17">
-        <v>0.7434653739682844</v>
+        <v>1.758444781855431</v>
       </c>
       <c r="G17">
-        <v>0.0007993548441284069</v>
+        <v>0.002493692040323433</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5075178576575183</v>
+        <v>1.232231843745303</v>
       </c>
       <c r="J17">
-        <v>0.1031170675915476</v>
+        <v>0.1949529328733703</v>
       </c>
       <c r="K17">
-        <v>7.390290726271019</v>
+        <v>2.959241260762553</v>
       </c>
       <c r="L17">
-        <v>0.129040144651114</v>
+        <v>0.2178854842189963</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.57279275064991</v>
+        <v>4.472497949986689</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2336192703442208</v>
+        <v>0.2153336636200578</v>
       </c>
       <c r="D18">
-        <v>0.2012202372661278</v>
+        <v>0.1690714057941705</v>
       </c>
       <c r="E18">
-        <v>0.1198242853358344</v>
+        <v>0.159555359031085</v>
       </c>
       <c r="F18">
-        <v>0.7384532188065407</v>
+        <v>1.761641919290739</v>
       </c>
       <c r="G18">
-        <v>0.0008005412639103668</v>
+        <v>0.002494403016567917</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5044560388347108</v>
+        <v>1.234681247680797</v>
       </c>
       <c r="J18">
-        <v>0.1018429747097684</v>
+        <v>0.1949071026332589</v>
       </c>
       <c r="K18">
-        <v>7.206577218704922</v>
+        <v>2.902031284124973</v>
       </c>
       <c r="L18">
-        <v>0.1271620577210797</v>
+        <v>0.2176372734709418</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.570794100734474</v>
+        <v>4.48489242334449</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2318664252791933</v>
+        <v>0.2148839022062674</v>
       </c>
       <c r="D19">
-        <v>0.1996561927825553</v>
+        <v>0.1686366036474567</v>
       </c>
       <c r="E19">
-        <v>0.119075581171419</v>
+        <v>0.1594026398246555</v>
       </c>
       <c r="F19">
-        <v>0.7368044183185063</v>
+        <v>1.762743654894329</v>
       </c>
       <c r="G19">
-        <v>0.0008009442141081458</v>
+        <v>0.00249464540001776</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5034542582887624</v>
+        <v>1.235524376520971</v>
       </c>
       <c r="J19">
-        <v>0.10141459206082</v>
+        <v>0.1948929440647689</v>
       </c>
       <c r="K19">
-        <v>7.144418739545358</v>
+        <v>2.882655851245261</v>
       </c>
       <c r="L19">
-        <v>0.1265289285371907</v>
+        <v>0.2175545056151833</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.570256141814781</v>
+        <v>4.48914281048431</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2397658353124257</v>
+        <v>0.2169114712630744</v>
       </c>
       <c r="D20">
-        <v>0.2067018145454966</v>
+        <v>0.1705950429038836</v>
       </c>
       <c r="E20">
-        <v>0.1224529693518441</v>
+        <v>0.1600932584660022</v>
       </c>
       <c r="F20">
-        <v>0.7444161790290309</v>
+        <v>1.757862204392552</v>
       </c>
       <c r="G20">
-        <v>0.00079913585263053</v>
+        <v>0.002493561242372522</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5081012961773084</v>
+        <v>1.231785071982671</v>
       </c>
       <c r="J20">
-        <v>0.1033543163590807</v>
+        <v>0.1949620602751594</v>
       </c>
       <c r="K20">
-        <v>7.42431340862538</v>
+        <v>2.969827085282645</v>
       </c>
       <c r="L20">
-        <v>0.1293890623064087</v>
+        <v>0.2179320263638616</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.573229305130212</v>
+        <v>4.470229589726955</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2665207332284893</v>
+        <v>0.2237862520942855</v>
       </c>
       <c r="D21">
-        <v>0.230511655412414</v>
+        <v>0.1772058721294201</v>
       </c>
       <c r="E21">
-        <v>0.1339509369582714</v>
+        <v>0.1624723350588617</v>
       </c>
       <c r="F21">
-        <v>0.7735063600174783</v>
+        <v>1.742800835023019</v>
       </c>
       <c r="G21">
-        <v>0.0007931437349931248</v>
+        <v>0.002490033749228919</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5262589466863972</v>
+        <v>1.22018269064872</v>
       </c>
       <c r="J21">
-        <v>0.110090518349871</v>
+        <v>0.1952887091316171</v>
       </c>
       <c r="K21">
-        <v>8.368171598864194</v>
+        <v>3.262338565813479</v>
       </c>
       <c r="L21">
-        <v>0.1392002716613945</v>
+        <v>0.2192887488855675</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.593332167213816</v>
+        <v>4.410433749803246</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2841841965772574</v>
+        <v>0.2283253096273938</v>
       </c>
       <c r="D22">
-        <v>0.2461888660212992</v>
+        <v>0.181548825679414</v>
       </c>
       <c r="E22">
-        <v>0.1415878196170368</v>
+        <v>0.1640707033701894</v>
       </c>
       <c r="F22">
-        <v>0.7953370387029679</v>
+        <v>1.733957245721115</v>
       </c>
       <c r="G22">
-        <v>0.0007892860689161431</v>
+        <v>0.002487813782302303</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5401660812117299</v>
+        <v>1.213317393440711</v>
       </c>
       <c r="J22">
-        <v>0.1146686713141776</v>
+        <v>0.1955724611501921</v>
       </c>
       <c r="K22">
-        <v>8.988113392358173</v>
+        <v>3.453215958409203</v>
       </c>
       <c r="L22">
-        <v>0.1457745856076187</v>
+        <v>0.2202410438491214</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.614577812651277</v>
+        <v>4.37415476938861</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2747394108056653</v>
+        <v>0.2258985553399953</v>
       </c>
       <c r="D23">
-        <v>0.2378101078570438</v>
+        <v>0.1792288936192108</v>
       </c>
       <c r="E23">
-        <v>0.1374999991709309</v>
+        <v>0.1632136588487576</v>
       </c>
       <c r="F23">
-        <v>0.7834144352192425</v>
+        <v>1.738585653935274</v>
       </c>
       <c r="G23">
-        <v>0.00079133988105782</v>
+        <v>0.002488990824122937</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5325472969295575</v>
+        <v>1.216915803564611</v>
       </c>
       <c r="J23">
-        <v>0.1122083201133606</v>
+        <v>0.195414594875281</v>
       </c>
       <c r="K23">
-        <v>8.656923484010179</v>
+        <v>3.351369349196887</v>
       </c>
       <c r="L23">
-        <v>0.142250119920341</v>
+        <v>0.2197267976882031</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.602458686021549</v>
+        <v>4.393260853203515</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.239331276741197</v>
+        <v>0.2167998906354427</v>
       </c>
       <c r="D24">
-        <v>0.2063144184828047</v>
+        <v>0.1704873778021181</v>
       </c>
       <c r="E24">
-        <v>0.1222669583947038</v>
+        <v>0.1600551115729445</v>
       </c>
       <c r="F24">
-        <v>0.7439854357410525</v>
+        <v>1.758125234236971</v>
       </c>
       <c r="G24">
-        <v>0.0007992348347369503</v>
+        <v>0.002493620345050225</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5078368829026871</v>
+        <v>1.23198680371479</v>
       </c>
       <c r="J24">
-        <v>0.1032470024724219</v>
+        <v>0.1949579092202143</v>
       </c>
       <c r="K24">
-        <v>7.408931176420822</v>
+        <v>2.965041409162268</v>
       </c>
       <c r="L24">
-        <v>0.1292312682453982</v>
+        <v>0.2179109619711639</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.573029377359546</v>
+        <v>4.47125412147895</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2017862279974736</v>
+        <v>0.207186412533531</v>
       </c>
       <c r="D25">
-        <v>0.1727540605620277</v>
+        <v>0.1611577167383729</v>
       </c>
       <c r="E25">
-        <v>0.106296500049698</v>
+        <v>0.1568364318186966</v>
       </c>
       <c r="F25">
-        <v>0.7123075499162184</v>
+        <v>1.783485397540211</v>
       </c>
       <c r="G25">
-        <v>0.0008080265715392008</v>
+        <v>0.002498983226375641</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4890359513760174</v>
+        <v>1.251316442593804</v>
       </c>
       <c r="J25">
-        <v>0.09425662773329435</v>
+        <v>0.1947676969873839</v>
       </c>
       <c r="K25">
-        <v>6.072806826439944</v>
+        <v>2.547173775832562</v>
       </c>
       <c r="L25">
-        <v>0.1158094243393322</v>
+        <v>0.2162353204494494</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.572507118159052</v>
+        <v>4.567368771989265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_255/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.200282878265071</v>
+        <v>0.1745790315557088</v>
       </c>
       <c r="D2">
-        <v>0.1543759122274935</v>
+        <v>0.1483077327114586</v>
       </c>
       <c r="E2">
-        <v>0.1546295407942502</v>
+        <v>0.09486672183113498</v>
       </c>
       <c r="F2">
-        <v>1.805833490361131</v>
+        <v>0.6970558134499285</v>
       </c>
       <c r="G2">
-        <v>0.002503252704902824</v>
+        <v>0.0008147630325932025</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.268184973858858</v>
+        <v>0.4810332315074817</v>
       </c>
       <c r="J2">
-        <v>0.1948882914732621</v>
+        <v>0.08813816674378216</v>
       </c>
       <c r="K2">
-        <v>2.238571896726114</v>
+        <v>5.094290721099128</v>
       </c>
       <c r="L2">
-        <v>0.2152460557927753</v>
+        <v>0.1063836070045738</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.648411802060537</v>
+        <v>1.595371685845606</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1957145503483275</v>
+        <v>0.1563592120331947</v>
       </c>
       <c r="D3">
-        <v>0.1498356420788696</v>
+        <v>0.1318644547020966</v>
       </c>
       <c r="E3">
-        <v>0.1532361930638615</v>
+        <v>0.08729588366750107</v>
       </c>
       <c r="F3">
-        <v>1.823267539609333</v>
+        <v>0.691185417756472</v>
       </c>
       <c r="G3">
-        <v>0.002506347948600474</v>
+        <v>0.0008195043654141698</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.281257982336221</v>
+        <v>0.4788401241025397</v>
       </c>
       <c r="J3">
-        <v>0.1951329391446563</v>
+        <v>0.08426815482723882</v>
       </c>
       <c r="K3">
-        <v>2.028888705679663</v>
+        <v>4.432940328987968</v>
       </c>
       <c r="L3">
-        <v>0.2147287509102966</v>
+        <v>0.100245639558068</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.709726907168474</v>
+        <v>1.623743316532966</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1929644642371642</v>
+        <v>0.145264014307628</v>
       </c>
       <c r="D4">
-        <v>0.1470759178108949</v>
+        <v>0.1218175292553667</v>
       </c>
       <c r="E4">
-        <v>0.1524313634453591</v>
+        <v>0.08272475547193636</v>
       </c>
       <c r="F4">
-        <v>1.835099578663296</v>
+        <v>0.6896102453037827</v>
       </c>
       <c r="G4">
-        <v>0.002508348510002439</v>
+        <v>0.0008225059612838073</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.290093201530034</v>
+        <v>0.4789612506489078</v>
       </c>
       <c r="J4">
-        <v>0.1953636461386346</v>
+        <v>0.08201744558827428</v>
       </c>
       <c r="K4">
-        <v>1.899891944254477</v>
+        <v>4.027320086388499</v>
       </c>
       <c r="L4">
-        <v>0.2144868920320064</v>
+        <v>0.09658971997357924</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.750521326293793</v>
+        <v>1.64701926205305</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1918576867104207</v>
+        <v>0.1407635772693538</v>
       </c>
       <c r="D5">
-        <v>0.1459584526993183</v>
+        <v>0.1177341447650377</v>
       </c>
       <c r="E5">
-        <v>0.1521161834048712</v>
+        <v>0.08088022121333438</v>
       </c>
       <c r="F5">
-        <v>1.84020454445249</v>
+        <v>0.6894543395920252</v>
       </c>
       <c r="G5">
-        <v>0.002509188993293085</v>
+        <v>0.0008237523622958336</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.293896725304677</v>
+        <v>0.4793620729222283</v>
       </c>
       <c r="J5">
-        <v>0.1954779272508596</v>
+        <v>0.08113031475851074</v>
       </c>
       <c r="K5">
-        <v>1.847265272329423</v>
+        <v>3.862083015584972</v>
       </c>
       <c r="L5">
-        <v>0.214407430195493</v>
+        <v>0.09512683629962737</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.767935719273993</v>
+        <v>1.65790730864687</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1916747500265501</v>
+        <v>0.140017487975598</v>
       </c>
       <c r="D6">
-        <v>0.145773332938262</v>
+        <v>0.1170567111697096</v>
       </c>
       <c r="E6">
-        <v>0.1520646221709541</v>
+        <v>0.0805750047885283</v>
       </c>
       <c r="F6">
-        <v>1.841069325851194</v>
+        <v>0.6894571179188276</v>
       </c>
       <c r="G6">
-        <v>0.002509330081509956</v>
+        <v>0.0008239607430980438</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.294540559497115</v>
+        <v>0.4794493592371012</v>
       </c>
       <c r="J6">
-        <v>0.1954981283264772</v>
+        <v>0.08098477997260289</v>
       </c>
       <c r="K6">
-        <v>1.83852316800801</v>
+        <v>3.834647348843419</v>
       </c>
       <c r="L6">
-        <v>0.2143953903971507</v>
+        <v>0.09488551186642979</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.770875073130441</v>
+        <v>1.65979802821164</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.192949481408462</v>
+        <v>0.145203237772094</v>
       </c>
       <c r="D7">
-        <v>0.1470608182238777</v>
+        <v>0.1217624175093448</v>
       </c>
       <c r="E7">
-        <v>0.1524270609485257</v>
+        <v>0.08269980716026026</v>
       </c>
       <c r="F7">
-        <v>1.835167279154241</v>
+        <v>0.6896062061239405</v>
       </c>
       <c r="G7">
-        <v>0.002508359742594029</v>
+        <v>0.0008225226759838736</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.290143675056278</v>
+        <v>0.4789652558149768</v>
       </c>
       <c r="J7">
-        <v>0.1953651052825585</v>
+        <v>0.08200536168252626</v>
       </c>
       <c r="K7">
-        <v>1.899182438529976</v>
+        <v>4.025091485206246</v>
       </c>
       <c r="L7">
-        <v>0.2144857429961675</v>
+        <v>0.09656988379859399</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.750752984090283</v>
+        <v>1.647160510971148</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.198696387372209</v>
+        <v>0.1682764340514638</v>
       </c>
       <c r="D8">
-        <v>0.152804669149873</v>
+        <v>0.1426268651893707</v>
       </c>
       <c r="E8">
-        <v>0.1541386213358429</v>
+        <v>0.09223947102815444</v>
       </c>
       <c r="F8">
-        <v>1.811610627873506</v>
+        <v>0.6945955041286069</v>
       </c>
       <c r="G8">
-        <v>0.002504299220740995</v>
+        <v>0.0008163793883299676</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.272524678348361</v>
+        <v>0.4799615392599748</v>
       </c>
       <c r="J8">
-        <v>0.1949559548169475</v>
+        <v>0.08677680704364832</v>
       </c>
       <c r="K8">
-        <v>2.16632715014714</v>
+        <v>4.866127512656931</v>
       </c>
       <c r="L8">
-        <v>0.2150519897113981</v>
+        <v>0.1042429288287181</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.668899600170747</v>
+        <v>1.603895882326412</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2103977214372748</v>
+        <v>0.2143578323831292</v>
       </c>
       <c r="D9">
-        <v>0.1642869720070195</v>
+        <v>0.1840121746687231</v>
       </c>
       <c r="E9">
-        <v>0.157895403163014</v>
+        <v>0.1116207887178611</v>
       </c>
       <c r="F9">
-        <v>1.774371262648032</v>
+        <v>0.7216442251930175</v>
       </c>
       <c r="G9">
-        <v>0.002497127115342936</v>
+        <v>0.0008050258383161448</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.244395259006389</v>
+        <v>0.4944038209956858</v>
       </c>
       <c r="J9">
-        <v>0.1947913228107225</v>
+        <v>0.09720212830104202</v>
       </c>
       <c r="K9">
-        <v>2.688081965167271</v>
+        <v>6.521853032044532</v>
       </c>
       <c r="L9">
-        <v>0.2167618594152856</v>
+        <v>0.1202547516645467</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.533394066844863</v>
+        <v>1.568842807333255</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2192537691241796</v>
+        <v>0.2488848082901143</v>
       </c>
       <c r="D10">
-        <v>0.172852298684532</v>
+        <v>0.2148260270396491</v>
       </c>
       <c r="E10">
-        <v>0.160897644328557</v>
+        <v>0.1263619309893187</v>
       </c>
       <c r="F10">
-        <v>1.752484223464187</v>
+        <v>0.7537699807654334</v>
       </c>
       <c r="G10">
-        <v>0.002492334880521987</v>
+        <v>0.0007970715508306414</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.227654010190534</v>
+        <v>0.5138799398088523</v>
       </c>
       <c r="J10">
-        <v>0.1950580932909816</v>
+        <v>0.1056221016952534</v>
       </c>
       <c r="K10">
-        <v>3.069993385234568</v>
+        <v>7.746706124465732</v>
       </c>
       <c r="L10">
-        <v>0.218381599617075</v>
+        <v>0.1327121221608394</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.449139988894615</v>
+        <v>1.578378948296574</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2233380842245793</v>
+        <v>0.2647770908602354</v>
       </c>
       <c r="D11">
-        <v>0.1767761836544963</v>
+        <v>0.2289623359610147</v>
       </c>
       <c r="E11">
-        <v>0.1623156336159433</v>
+        <v>0.1331989752195213</v>
       </c>
       <c r="F11">
-        <v>1.743718542626965</v>
+        <v>0.7714613249385707</v>
       </c>
       <c r="G11">
-        <v>0.002490257337855419</v>
+        <v>0.0007935285216519149</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.220892711862071</v>
+        <v>0.5249665328088042</v>
       </c>
       <c r="J11">
-        <v>0.1952634449125341</v>
+        <v>0.1096440503673222</v>
       </c>
       <c r="K11">
-        <v>3.243401085020764</v>
+        <v>8.306842461671238</v>
       </c>
       <c r="L11">
-        <v>0.2191970073090701</v>
+        <v>0.1385553248539537</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.414145305761707</v>
+        <v>1.591569205752222</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2248926242513107</v>
+        <v>0.2708253111308636</v>
       </c>
       <c r="D12">
-        <v>0.1782659237127149</v>
+        <v>0.2343351347009275</v>
       </c>
       <c r="E12">
-        <v>0.16286006278089</v>
+        <v>0.1358088226332406</v>
       </c>
       <c r="F12">
-        <v>1.740570690760578</v>
+        <v>0.7786408280124135</v>
       </c>
       <c r="G12">
-        <v>0.00248948528382106</v>
+        <v>0.0007921969606263601</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.218455438563886</v>
+        <v>0.5295123271556292</v>
       </c>
       <c r="J12">
-        <v>0.1953532642062896</v>
+        <v>0.1111969983275714</v>
       </c>
       <c r="K12">
-        <v>3.309016357095174</v>
+        <v>8.519472955534866</v>
       </c>
       <c r="L12">
-        <v>0.2195170420698318</v>
+        <v>0.1407956294268189</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.401374041540436</v>
+        <v>1.597945239310832</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2245574766078846</v>
+        <v>0.2695213195179349</v>
       </c>
       <c r="D13">
-        <v>0.1779449119038929</v>
+        <v>0.2331770873350649</v>
       </c>
       <c r="E13">
-        <v>0.1627424788459919</v>
+        <v>0.1352457873376771</v>
       </c>
       <c r="F13">
-        <v>1.741241004085765</v>
+        <v>0.777072604950348</v>
       </c>
       <c r="G13">
-        <v>0.002489650908331391</v>
+        <v>0.0007924832989065453</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.218974871222613</v>
+        <v>0.5285173930250338</v>
       </c>
       <c r="J13">
-        <v>0.1953333841122245</v>
+        <v>0.1108611726449311</v>
       </c>
       <c r="K13">
-        <v>3.294887235656802</v>
+        <v>8.473654476396916</v>
       </c>
       <c r="L13">
-        <v>0.2194476168422028</v>
+        <v>0.1403118737670894</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.404103174100328</v>
+        <v>1.596508800327911</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.223465819464991</v>
+        <v>0.2652740564370504</v>
       </c>
       <c r="D14">
-        <v>0.1768986688811793</v>
+        <v>0.2294039492356887</v>
       </c>
       <c r="E14">
-        <v>0.1623602747399069</v>
+        <v>0.133413260266817</v>
       </c>
       <c r="F14">
-        <v>1.743456127820195</v>
+        <v>0.7720421368583459</v>
       </c>
       <c r="G14">
-        <v>0.002490193527177435</v>
+        <v>0.0007934187752262447</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.220689727855188</v>
+        <v>0.5253333883426734</v>
       </c>
       <c r="J14">
-        <v>0.1952705928798366</v>
+        <v>0.1097711983971408</v>
       </c>
       <c r="K14">
-        <v>3.248800324825879</v>
+        <v>8.324324720271647</v>
       </c>
       <c r="L14">
-        <v>0.2192231113833643</v>
+        <v>0.138739069088615</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.413084970149413</v>
+        <v>1.592065433747251</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2227981734797027</v>
+        <v>0.2626765196281156</v>
       </c>
       <c r="D15">
-        <v>0.176258313222263</v>
+        <v>0.2270954372577449</v>
       </c>
       <c r="E15">
-        <v>0.1621271347821143</v>
+        <v>0.1322935544305039</v>
       </c>
       <c r="F15">
-        <v>1.744835300477391</v>
+        <v>0.7690245330332885</v>
       </c>
       <c r="G15">
-        <v>0.002490527804601667</v>
+        <v>0.0007939930747895751</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.221756162847207</v>
+        <v>0.5234292025966454</v>
       </c>
       <c r="J15">
-        <v>0.1952337009921337</v>
+        <v>0.1091075280214966</v>
       </c>
       <c r="K15">
-        <v>3.220564083080774</v>
+        <v>8.232926507799903</v>
       </c>
       <c r="L15">
-        <v>0.2190870601293327</v>
+        <v>0.1377793467873474</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.418649185395509</v>
+        <v>1.589526974918698</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2189879604858049</v>
+        <v>0.2478502365431012</v>
       </c>
       <c r="D16">
-        <v>0.1725964077936339</v>
+        <v>0.2139047950514055</v>
       </c>
       <c r="E16">
-        <v>0.1608060228870727</v>
+        <v>0.1259179166765989</v>
       </c>
       <c r="F16">
-        <v>1.753081068030355</v>
+        <v>0.752678883439728</v>
       </c>
       <c r="G16">
-        <v>0.002492472708909234</v>
+        <v>0.0007973045519164592</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.228113088474998</v>
+        <v>0.5132025007061074</v>
       </c>
       <c r="J16">
-        <v>0.1950463614607614</v>
+        <v>0.1053633122195947</v>
       </c>
       <c r="K16">
-        <v>3.058653919189908</v>
+        <v>7.710167128651392</v>
       </c>
       <c r="L16">
-        <v>0.2183298884265028</v>
+        <v>0.1323339915258117</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.451494142612859</v>
+        <v>1.577704117775596</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2166646980545721</v>
+        <v>0.2388047373615052</v>
       </c>
       <c r="D17">
-        <v>0.1703569123192352</v>
+        <v>0.2058449942824296</v>
       </c>
       <c r="E17">
-        <v>0.1600089138361973</v>
+        <v>0.122041608677641</v>
       </c>
       <c r="F17">
-        <v>1.758444781855431</v>
+        <v>0.7434653739682844</v>
       </c>
       <c r="G17">
-        <v>0.002493692040323433</v>
+        <v>0.0007993548441509464</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.232231843745303</v>
+        <v>0.5075178576575183</v>
       </c>
       <c r="J17">
-        <v>0.1949529328733703</v>
+        <v>0.1031170675915902</v>
       </c>
       <c r="K17">
-        <v>2.959241260762553</v>
+        <v>7.390290726271076</v>
       </c>
       <c r="L17">
-        <v>0.2178854842189963</v>
+        <v>0.1290401446511851</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.472497949986689</v>
+        <v>1.572792750649882</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2153336636200578</v>
+        <v>0.2336192703441924</v>
       </c>
       <c r="D18">
-        <v>0.1690714057941705</v>
+        <v>0.2012202372662415</v>
       </c>
       <c r="E18">
-        <v>0.159555359031085</v>
+        <v>0.1198242853358629</v>
       </c>
       <c r="F18">
-        <v>1.761641919290739</v>
+        <v>0.7384532188065336</v>
       </c>
       <c r="G18">
-        <v>0.002494403016567917</v>
+        <v>0.0008005412639678372</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.234681247680797</v>
+        <v>0.5044560388347108</v>
       </c>
       <c r="J18">
-        <v>0.1949071026332589</v>
+        <v>0.1018429747098821</v>
       </c>
       <c r="K18">
-        <v>2.902031284124973</v>
+        <v>7.206577218705092</v>
       </c>
       <c r="L18">
-        <v>0.2176372734709418</v>
+        <v>0.1271620577209802</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.48489242334449</v>
+        <v>1.57079410073456</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2148839022062674</v>
+        <v>0.2318664252797618</v>
       </c>
       <c r="D19">
-        <v>0.1686366036474567</v>
+        <v>0.1996561927825837</v>
       </c>
       <c r="E19">
-        <v>0.1594026398246555</v>
+        <v>0.1190755811714013</v>
       </c>
       <c r="F19">
-        <v>1.762743654894329</v>
+        <v>0.7368044183184992</v>
       </c>
       <c r="G19">
-        <v>0.00249464540001776</v>
+        <v>0.0008009442141879708</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.235524376520971</v>
+        <v>0.5034542582887624</v>
       </c>
       <c r="J19">
-        <v>0.1948929440647689</v>
+        <v>0.1014145920607774</v>
       </c>
       <c r="K19">
-        <v>2.882655851245261</v>
+        <v>7.144418739545358</v>
       </c>
       <c r="L19">
-        <v>0.2175545056151833</v>
+        <v>0.1265289285370912</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.48914281048431</v>
+        <v>1.570256141814781</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2169114712630744</v>
+        <v>0.2397658353124257</v>
       </c>
       <c r="D20">
-        <v>0.1705950429038836</v>
+        <v>0.2067018145456245</v>
       </c>
       <c r="E20">
-        <v>0.1600932584660022</v>
+        <v>0.1224529693518441</v>
       </c>
       <c r="F20">
-        <v>1.757862204392552</v>
+        <v>0.7444161790290309</v>
       </c>
       <c r="G20">
-        <v>0.002493561242372522</v>
+        <v>0.0007991358526750584</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.231785071982671</v>
+        <v>0.5081012961773084</v>
       </c>
       <c r="J20">
-        <v>0.1949620602751594</v>
+        <v>0.1033543163590522</v>
       </c>
       <c r="K20">
-        <v>2.969827085282645</v>
+        <v>7.42431340862538</v>
       </c>
       <c r="L20">
-        <v>0.2179320263638616</v>
+        <v>0.1293890623063731</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.470229589726955</v>
+        <v>1.573229305130184</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2237862520942855</v>
+        <v>0.266520733228262</v>
       </c>
       <c r="D21">
-        <v>0.1772058721294201</v>
+        <v>0.2305116554123998</v>
       </c>
       <c r="E21">
-        <v>0.1624723350588617</v>
+        <v>0.1339509369582359</v>
       </c>
       <c r="F21">
-        <v>1.742800835023019</v>
+        <v>0.7735063600174783</v>
       </c>
       <c r="G21">
-        <v>0.002490033749228919</v>
+        <v>0.0007931437349698169</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.22018269064872</v>
+        <v>0.5262589466863972</v>
       </c>
       <c r="J21">
-        <v>0.1952887091316171</v>
+        <v>0.1100905183499066</v>
       </c>
       <c r="K21">
-        <v>3.262338565813479</v>
+        <v>8.368171598864024</v>
       </c>
       <c r="L21">
-        <v>0.2192887488855675</v>
+        <v>0.1392002716613661</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.410433749803246</v>
+        <v>1.593332167213816</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2283253096273938</v>
+        <v>0.2841841965771152</v>
       </c>
       <c r="D22">
-        <v>0.181548825679414</v>
+        <v>0.2461888660214129</v>
       </c>
       <c r="E22">
-        <v>0.1640707033701894</v>
+        <v>0.1415878196170297</v>
       </c>
       <c r="F22">
-        <v>1.733957245721115</v>
+        <v>0.7953370387029537</v>
       </c>
       <c r="G22">
-        <v>0.002487813782302303</v>
+        <v>0.0007892860688645884</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.213317393440711</v>
+        <v>0.5401660812117299</v>
       </c>
       <c r="J22">
-        <v>0.1955724611501921</v>
+        <v>0.1146686713142273</v>
       </c>
       <c r="K22">
-        <v>3.453215958409203</v>
+        <v>8.988113392358173</v>
       </c>
       <c r="L22">
-        <v>0.2202410438491214</v>
+        <v>0.1457745856076045</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.37415476938861</v>
+        <v>1.614577812651191</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2258985553399953</v>
+        <v>0.2747394108058643</v>
       </c>
       <c r="D23">
-        <v>0.1792288936192108</v>
+        <v>0.2378101078569159</v>
       </c>
       <c r="E23">
-        <v>0.1632136588487576</v>
+        <v>0.1374999991709558</v>
       </c>
       <c r="F23">
-        <v>1.738585653935274</v>
+        <v>0.7834144352192425</v>
       </c>
       <c r="G23">
-        <v>0.002488990824122937</v>
+        <v>0.0007913398810340631</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.216915803564611</v>
+        <v>0.5325472969295362</v>
       </c>
       <c r="J23">
-        <v>0.195414594875281</v>
+        <v>0.1122083201132895</v>
       </c>
       <c r="K23">
-        <v>3.351369349196887</v>
+        <v>8.656923484010008</v>
       </c>
       <c r="L23">
-        <v>0.2197267976882031</v>
+        <v>0.1422501199203339</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.393260853203515</v>
+        <v>1.602458686021521</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2167998906354427</v>
+        <v>0.239331276741197</v>
       </c>
       <c r="D24">
-        <v>0.1704873778021181</v>
+        <v>0.2063144184829042</v>
       </c>
       <c r="E24">
-        <v>0.1600551115729445</v>
+        <v>0.1222669583947464</v>
       </c>
       <c r="F24">
-        <v>1.758125234236971</v>
+        <v>0.7439854357410454</v>
       </c>
       <c r="G24">
-        <v>0.002493620345050225</v>
+        <v>0.0007992348348081012</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.23198680371479</v>
+        <v>0.5078368829026942</v>
       </c>
       <c r="J24">
-        <v>0.1949579092202143</v>
+        <v>0.1032470024724006</v>
       </c>
       <c r="K24">
-        <v>2.965041409162268</v>
+        <v>7.408931176420879</v>
       </c>
       <c r="L24">
-        <v>0.2179109619711639</v>
+        <v>0.1292312682453911</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.47125412147895</v>
+        <v>1.573029377359518</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.207186412533531</v>
+        <v>0.2017862279969904</v>
       </c>
       <c r="D25">
-        <v>0.1611577167383729</v>
+        <v>0.172754060561914</v>
       </c>
       <c r="E25">
-        <v>0.1568364318186966</v>
+        <v>0.1062965000497087</v>
       </c>
       <c r="F25">
-        <v>1.783485397540211</v>
+        <v>0.7123075499162113</v>
       </c>
       <c r="G25">
-        <v>0.002498983226375641</v>
+        <v>0.0008080265715171824</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.251316442593804</v>
+        <v>0.4890359513760316</v>
       </c>
       <c r="J25">
-        <v>0.1947676969873839</v>
+        <v>0.09425662773336541</v>
       </c>
       <c r="K25">
-        <v>2.547173775832562</v>
+        <v>6.072806826439944</v>
       </c>
       <c r="L25">
-        <v>0.2162353204494494</v>
+        <v>0.1158094243392256</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.567368771989265</v>
+        <v>1.572507118159024</v>
       </c>
     </row>
   </sheetData>
